--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2178.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2178.xlsx
@@ -354,7 +354,7 @@
         <v>1.870646059346212</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.071606480381178</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2178.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2178.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.119083956935149</v>
+        <v>1.275026679039001</v>
       </c>
       <c r="B1">
-        <v>1.870646059346212</v>
+        <v>2.349532604217529</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.071606480381178</v>
+        <v>1.384984850883484</v>
       </c>
       <c r="E1">
-        <v>0.8878183377851407</v>
+        <v>0.8522005677223206</v>
       </c>
     </row>
   </sheetData>
